--- a/data/cement/cement_var.xlsx
+++ b/data/cement/cement_var.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/cement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8088470B-59F3-EA46-BCDA-01E7522F8787}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{602F7481-D8F3-BE4C-A019-0232FCCCB6F4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="460" windowWidth="22120" windowHeight="17540" tabRatio="598" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13960" yWindow="460" windowWidth="22120" windowHeight="17540" tabRatio="598" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fuel" sheetId="28" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="62">
   <si>
     <t>meta-notes</t>
   </si>
@@ -194,15 +194,9 @@
     <t>GJ/t meal</t>
   </si>
   <si>
-    <t>fuel type</t>
-  </si>
-  <si>
     <t>calcination eff</t>
   </si>
   <si>
-    <t>kg/kg clinker</t>
-  </si>
-  <si>
     <t>Clinker</t>
   </si>
   <si>
@@ -236,9 +230,6 @@
     <t>MgCO3</t>
   </si>
   <si>
-    <t>bitiminuous coal - IPCC</t>
-  </si>
-  <si>
     <t>clinker recovery eff</t>
   </si>
   <si>
@@ -252,6 +243,30 @@
   </si>
   <si>
     <t>kg fly ash/kg cement</t>
+  </si>
+  <si>
+    <t>clinker heat</t>
+  </si>
+  <si>
+    <t>GJ / t clinker</t>
+  </si>
+  <si>
+    <t>heat recovery eff</t>
+  </si>
+  <si>
+    <t>coal bituminous - IPCC</t>
+  </si>
+  <si>
+    <t>charcoal - IPCC</t>
+  </si>
+  <si>
+    <t>coal - CEMCAP</t>
+  </si>
+  <si>
+    <t>dust in</t>
+  </si>
+  <si>
+    <t>kg/kg meal out</t>
   </si>
 </sst>
 </file>
@@ -262,9 +277,9 @@
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
-    <numFmt numFmtId="168" formatCode="0.000000"/>
+    <numFmt numFmtId="167" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -333,6 +348,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -440,7 +470,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -472,8 +502,11 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -773,7 +806,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -795,10 +828,10 @@
         <v>33</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H1" s="21" t="s">
         <v>1</v>
@@ -861,6 +894,9 @@
       <c r="G4">
         <f>1-SUM(B4:F4)</f>
         <v>9.9999999999988987E-4</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
       </c>
       <c r="I4" s="29"/>
     </row>
@@ -871,77 +907,90 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39140EA8-A8E4-7F42-9095-6286906B86F3}">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="10.83203125" style="33"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
         <v>27</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>42</v>
+        <v>45</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>60</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="H1" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="M1" s="21"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>45</v>
+        <v>42</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>61</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" s="25"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
+        <v>43</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="25"/>
       <c r="M2" s="21"/>
       <c r="N2" s="21"/>
       <c r="O2" s="21"/>
       <c r="P2" s="21"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q2" s="21"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
+      <c r="C3" s="32"/>
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="F3" s="25"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -949,14 +998,36 @@
         <f>233098/200025</f>
         <v>1.1653443319585053</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="33">
+        <f>(10550-9339)/233098</f>
+        <v>5.1952397703970005E-3</v>
+      </c>
+      <c r="D4">
         <v>0.77339999999999998</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>1.49E-2</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>0.18</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>58</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -969,7 +1040,7 @@
   <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -982,16 +1053,16 @@
         <v>27</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -1024,17 +1095,17 @@
         <v>25</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E2" s="25"/>
       <c r="F2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L2" s="21"/>
       <c r="M2" s="21"/>
@@ -1079,7 +1150,19 @@
         <v>6.0336038212824204E-2</v>
       </c>
       <c r="G4" t="s">
-        <v>51</v>
+        <v>59</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1092,7 +1175,7 @@
   <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A9"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1106,16 +1189,16 @@
         <v>27</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -1148,17 +1231,17 @@
         <v>25</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E2" s="25"/>
       <c r="F2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="L2" s="23"/>
       <c r="M2" s="21"/>
@@ -1199,11 +1282,23 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <f>5290/120646</f>
-        <v>4.3847288762163684E-2</v>
+        <f>5290/143198</f>
+        <v>3.6941856729842598E-2</v>
       </c>
       <c r="G4" t="s">
-        <v>51</v>
+        <v>59</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
       </c>
       <c r="O4"/>
       <c r="P4"/>
@@ -1215,41 +1310,59 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55113C92-7445-8F47-830C-BF7413622C12}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
         <v>27</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>34</v>
       </c>
       <c r="B4">
         <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1259,56 +1372,65 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A881C3A3-E8FC-0842-9D3C-A892C518175D}">
-  <dimension ref="I1:M4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I1" s="24" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="J1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="L1" t="s">
+      <c r="D1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" t="s">
         <v>53</v>
       </c>
-      <c r="M1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I2" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L2" t="s">
-        <v>54</v>
-      </c>
-      <c r="M2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I3" s="25" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="I4" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="25" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>34</v>
       </c>
-      <c r="J4">
+      <c r="B4">
         <v>0.73699999999999999</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1320,7 +1442,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>

--- a/data/cement/cement_var.xlsx
+++ b/data/cement/cement_var.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/cement/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\BlackBlox\data\cement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{602F7481-D8F3-BE4C-A019-0232FCCCB6F4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13960" yWindow="460" windowWidth="22120" windowHeight="17540" tabRatio="598" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13965" yWindow="465" windowWidth="22125" windowHeight="17535" tabRatio="598" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Fuel" sheetId="28" r:id="rId1"/>
@@ -22,7 +21,7 @@
     <sheet name="Mixer" sheetId="29" r:id="rId7"/>
     <sheet name="Ref" sheetId="7" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,12 +37,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1200-000001000000}">
+    <comment ref="C3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -81,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="58">
   <si>
     <t>meta-notes</t>
   </si>
@@ -176,15 +175,6 @@
     <t>CaCO3</t>
   </si>
   <si>
-    <t>SiO2</t>
-  </si>
-  <si>
-    <t>AlO2</t>
-  </si>
-  <si>
-    <t>FeO2</t>
-  </si>
-  <si>
     <t>CEMCAP-0C</t>
   </si>
   <si>
@@ -224,12 +214,6 @@
     <t>kg/kg calcined meal</t>
   </si>
   <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>MgCO3</t>
-  </si>
-  <si>
     <t>clinker recovery eff</t>
   </si>
   <si>
@@ -260,19 +244,22 @@
     <t>charcoal - IPCC</t>
   </si>
   <si>
-    <t>coal - CEMCAP</t>
-  </si>
-  <si>
     <t>dust in</t>
   </si>
   <si>
     <t>kg/kg meal out</t>
+  </si>
+  <si>
+    <t>Clay</t>
+  </si>
+  <si>
+    <t>Marl</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -510,8 +497,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 3" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -788,30 +775,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8F38B04-0302-614C-8C6E-250B6E31288D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4FC3BB5-9F80-6647-B0D2-EBF672B93339}">
-  <dimension ref="A1:I4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>27</v>
       </c>
@@ -819,86 +806,54 @@
         <v>30</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="D1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="H1" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" s="21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B4">
         <v>0.79300000000000004</v>
       </c>
       <c r="C4">
-        <v>0.13800000000000001</v>
-      </c>
-      <c r="D4">
-        <v>3.3000000000000002E-2</v>
+        <v>0.20699999999999999</v>
       </c>
       <c r="E4">
-        <v>0.02</v>
-      </c>
-      <c r="F4">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G4">
-        <f>1-SUM(B4:F4)</f>
-        <v>9.9999999999988987E-4</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4" s="29"/>
+        <v>0</v>
+      </c>
+      <c r="F4" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -906,36 +861,36 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39140EA8-A8E4-7F42-9095-6286906B86F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.83203125" style="33"/>
+    <col min="3" max="3" width="10.85546875" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>27</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C1" s="31" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F1" s="26" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
@@ -957,21 +912,21 @@
       </c>
       <c r="M1" s="21"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F2" s="25"/>
       <c r="M2" s="21"/>
@@ -980,7 +935,7 @@
       <c r="P2" s="21"/>
       <c r="Q2" s="21"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>0</v>
       </c>
@@ -990,9 +945,9 @@
       <c r="E3" s="25"/>
       <c r="F3" s="25"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B4">
         <f>233098/200025</f>
@@ -1015,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1024,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -1036,33 +991,33 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{621AB658-70D9-5441-BD16-8DE597460781}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>27</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -1090,22 +1045,22 @@
       <c r="Q1" s="21"/>
       <c r="R1" s="21"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E2" s="25"/>
       <c r="F2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L2" s="21"/>
       <c r="M2" s="21"/>
@@ -1119,7 +1074,7 @@
       <c r="U2" s="21"/>
       <c r="V2" s="21"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>0</v>
       </c>
@@ -1128,9 +1083,9 @@
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B4">
         <f>143198/233098</f>
@@ -1150,7 +1105,7 @@
         <v>6.0336038212824204E-2</v>
       </c>
       <c r="G4" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1159,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -1171,34 +1126,34 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E5BE465-68F2-1C42-8E61-90A64DEA9EBE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="17.5" customWidth="1"/>
-    <col min="12" max="18" width="10.83203125" style="1"/>
+    <col min="8" max="8" width="17.42578125" customWidth="1"/>
+    <col min="12" max="18" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>27</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -1226,22 +1181,22 @@
       <c r="Q1" s="23"/>
       <c r="R1" s="23"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E2" s="25"/>
       <c r="F2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="L2" s="23"/>
       <c r="M2" s="21"/>
@@ -1255,7 +1210,7 @@
       <c r="U2" s="21"/>
       <c r="V2" s="21"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>0</v>
       </c>
@@ -1264,9 +1219,9 @@
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B4">
         <f>120646/143198</f>
@@ -1286,7 +1241,7 @@
         <v>3.6941856729842598E-2</v>
       </c>
       <c r="G4" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1295,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -1309,48 +1264,48 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55113C92-7445-8F47-830C-BF7413622C12}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>27</v>
       </c>
       <c r="B1" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="30" t="s">
-        <v>54</v>
-      </c>
       <c r="D1" s="30" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1371,54 +1326,54 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A881C3A3-E8FC-0842-9D3C-A892C518175D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B4">
         <v>0.73699999999999999</v>
@@ -1427,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1439,33 +1394,33 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="5" t="s">
         <v>8</v>
@@ -1474,7 +1429,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>10</v>
       </c>
@@ -1486,7 +1441,7 @@
         <v>5.3537967341839917E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
@@ -1498,7 +1453,7 @@
         <v>7.1573391630231102E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>12</v>
       </c>
@@ -1510,7 +1465,7 @@
         <v>1.2496698492013921E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>13</v>
       </c>
@@ -1522,7 +1477,7 @@
         <v>1.963482644775587E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>14</v>
       </c>
@@ -1534,7 +1489,7 @@
         <v>8.9938431337556905E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>15</v>
       </c>
@@ -1546,7 +1501,7 @@
         <v>8.0375122691175155E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>16</v>
       </c>
@@ -1559,7 +1514,7 @@
         <v>4.1190030040748338E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>17</v>
       </c>
@@ -1571,7 +1526,7 @@
         <v>1.2498170786115822E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>18</v>
       </c>
@@ -1583,24 +1538,24 @@
         <v>1.4276255911483892E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="11"/>
       <c r="C13" s="12"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
       <c r="B16" s="14" t="s">
         <v>20</v>
@@ -1608,7 +1563,7 @@
       <c r="C16" s="14"/>
       <c r="H16" s="27"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>21</v>
       </c>
@@ -1617,7 +1572,7 @@
       </c>
       <c r="C17" s="8"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>22</v>
       </c>
@@ -1629,7 +1584,7 @@
       <c r="D18" s="20"/>
       <c r="E18" s="27"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
         <v>23</v>
       </c>
@@ -1639,7 +1594,7 @@
       </c>
       <c r="C19" s="8"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
         <v>24</v>
       </c>
@@ -1649,7 +1604,7 @@
       </c>
       <c r="E20" s="27"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
         <v>26</v>
       </c>
@@ -1658,7 +1613,7 @@
         <v>0.90718581887127947</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H28" t="s">
         <v>29</v>
       </c>

--- a/data/cement/cement_var.xlsx
+++ b/data/cement/cement_var.xlsx
@@ -9,17 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13965" yWindow="465" windowWidth="22125" windowHeight="17535" tabRatio="598" activeTab="6"/>
+    <workbookView xWindow="13965" yWindow="465" windowWidth="22125" windowHeight="17535" tabRatio="598"/>
   </bookViews>
   <sheets>
-    <sheet name="Fuel" sheetId="28" r:id="rId1"/>
-    <sheet name="Meal" sheetId="25" r:id="rId2"/>
-    <sheet name="Preheater" sheetId="30" r:id="rId3"/>
-    <sheet name="Calciner" sheetId="26" r:id="rId4"/>
-    <sheet name="Kiln" sheetId="27" r:id="rId5"/>
-    <sheet name="Cooler" sheetId="31" r:id="rId6"/>
-    <sheet name="Mixer" sheetId="29" r:id="rId7"/>
-    <sheet name="Ref" sheetId="7" r:id="rId8"/>
+    <sheet name="Meal" sheetId="25" r:id="rId1"/>
+    <sheet name="Kiln System" sheetId="32" r:id="rId2"/>
+    <sheet name="Cooler" sheetId="31" r:id="rId3"/>
+    <sheet name="Mixer" sheetId="29" r:id="rId4"/>
+    <sheet name="Ref" sheetId="7" r:id="rId5"/>
+    <sheet name="Preheater" sheetId="30" r:id="rId6"/>
+    <sheet name="Calciner" sheetId="26" r:id="rId7"/>
+    <sheet name="Kiln" sheetId="27" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -37,6 +37,98 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Samantha Eleanor Tanzer - TBM</author>
+  </authors>
+  <commentList>
+    <comment ref="B5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Samantha Eleanor Tanzer - TBM:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+(CO2/t clinker * CaCO3/CO2) / (t meal/t clinker) </t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Samantha Eleanor Tanzer - TBM</author>
+  </authors>
+  <commentList>
+    <comment ref="C3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Samantha Eleanor Tanzer - TBM:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+(CO2/t clinker * CaCO3/CO2) / (t meal/t clinker) </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Samantha Eleanor Tanzer - TBM:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Mass flow of solid fuel/clinker output * heating value of coal specified in energies paper</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Microsoft Office User</author>
@@ -79,8 +171,42 @@
 </comments>
 </file>
 
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Samantha Eleanor Tanzer - TBM</author>
+  </authors>
+  <commentList>
+    <comment ref="I5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Samantha Eleanor Tanzer - TBM:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Based on 6% moisture of the meal</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="64">
   <si>
     <t>meta-notes</t>
   </si>
@@ -254,6 +380,24 @@
   </si>
   <si>
     <t>Marl</t>
+  </si>
+  <si>
+    <t>EU-BAT</t>
+  </si>
+  <si>
+    <t>blast furnace slag</t>
+  </si>
+  <si>
+    <t>kg blast furnace slag/kg cement</t>
+  </si>
+  <si>
+    <t>GJ/kg clinker out</t>
+  </si>
+  <si>
+    <t>meal2clinker</t>
+  </si>
+  <si>
+    <t>kg meal/kg clinker</t>
   </si>
 </sst>
 </file>
@@ -266,7 +410,7 @@
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -353,6 +497,39 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -457,7 +634,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -494,6 +671,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -775,25 +955,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -845,143 +1011,278 @@
         <v>31</v>
       </c>
       <c r="B4">
-        <v>0.79300000000000004</v>
+        <v>0.77</v>
       </c>
       <c r="C4">
-        <v>0.20699999999999999</v>
+        <f>1-B4</f>
+        <v>0.22999999999999998</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4" s="29"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5">
+        <f>0.421*(100/44)/1.52</f>
+        <v>0.62948564593301437</v>
+      </c>
+      <c r="C5">
+        <f>1-B5</f>
+        <v>0.37051435406698563</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="25"/>
+      <c r="F2" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="K2" s="23"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3">
+        <v>1.57</v>
+      </c>
+      <c r="C3">
+        <f>Meal!B5</f>
+        <v>0.62948564593301437</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>3.3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3">
+        <f>100*Ref!B18</f>
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4">
+        <v>1.6</v>
+      </c>
+      <c r="C4">
+        <f>Meal!B4</f>
+        <v>0.77</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <f>(8640+5290)/120646*27.15</f>
+        <v>3.1347868972033885</v>
+      </c>
+      <c r="G4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4">
+        <f>97*Ref!B18</f>
+        <v>0.34920000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="10.85546875" style="33"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="D1" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="J1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="B1" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="21"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" s="25"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>31</v>
       </c>
       <c r="B4">
-        <f>233098/200025</f>
-        <v>1.1653443319585053</v>
-      </c>
-      <c r="C4" s="33">
-        <f>(10550-9339)/233098</f>
-        <v>5.1952397703970005E-3</v>
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.77339999999999998</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>1.49E-2</v>
-      </c>
-      <c r="F4">
-        <v>0.18</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4" t="s">
-        <v>53</v>
-      </c>
-      <c r="L4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
         <v>0</v>
       </c>
     </row>
@@ -992,132 +1293,91 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>34</v>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" t="s">
+        <v>47</v>
       </c>
       <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="25"/>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" t="s">
+        <v>48</v>
+      </c>
       <c r="F2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>31</v>
       </c>
       <c r="B4">
-        <f>143198/233098</f>
-        <v>0.61432530523642415</v>
+        <v>0.73699999999999999</v>
       </c>
       <c r="C4">
-        <v>0.63590000000000002</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>1.23E-2</v>
+        <v>0.05</v>
       </c>
       <c r="E4">
-        <v>0.95</v>
-      </c>
-      <c r="F4">
-        <f>8640/143198</f>
-        <v>6.0336038212824204E-2</v>
-      </c>
-      <c r="G4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4" t="s">
-        <v>53</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5">
+        <v>0.8</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0.05</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0.15</v>
       </c>
     </row>
   </sheetData>
@@ -1126,274 +1386,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="8" max="8" width="17.42578125" customWidth="1"/>
-    <col min="12" max="18" width="10.85546875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="25"/>
-      <c r="F2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L2" s="23"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4">
-        <f>120646/143198</f>
-        <v>0.842511766924119</v>
-      </c>
-      <c r="C4">
-        <v>6.2399999999999997E-2</v>
-      </c>
-      <c r="D4">
-        <v>1.1999999999999999E-3</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <f>5290/143198</f>
-        <v>3.6941856729842598E-2</v>
-      </c>
-      <c r="G4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4" t="s">
-        <v>53</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="O4"/>
-      <c r="P4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4">
-        <v>0.73699999999999999</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0.05</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
@@ -1622,4 +1614,444 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="25.140625" customWidth="1"/>
+    <col min="3" max="3" width="15" style="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" style="35" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="21"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="25"/>
+      <c r="I2" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="25"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4">
+        <f>233098/200025</f>
+        <v>1.1653443319585053</v>
+      </c>
+      <c r="C4" s="33">
+        <f>(10550-9339)/233098</f>
+        <v>5.1952397703970005E-3</v>
+      </c>
+      <c r="D4">
+        <v>0.77339999999999998</v>
+      </c>
+      <c r="E4">
+        <v>1.49E-2</v>
+      </c>
+      <c r="F4">
+        <v>0.18</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" s="35">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>53</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="33">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <f>Meal!B5</f>
+        <v>0.62948564593301437</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="35">
+        <f>0.29/1.52</f>
+        <v>0.19078947368421051</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="25"/>
+      <c r="F2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4">
+        <f>143198/233098</f>
+        <v>0.61432530523642415</v>
+      </c>
+      <c r="C4">
+        <v>0.63590000000000002</v>
+      </c>
+      <c r="D4">
+        <v>1.23E-2</v>
+      </c>
+      <c r="E4">
+        <v>0.95</v>
+      </c>
+      <c r="F4">
+        <f>8640/143198</f>
+        <v>6.0336038212824204E-2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="17.42578125" customWidth="1"/>
+    <col min="12" max="18" width="10.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="25"/>
+      <c r="F2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" s="23"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4">
+        <f>120646/143198</f>
+        <v>0.842511766924119</v>
+      </c>
+      <c r="C4">
+        <v>6.2399999999999997E-2</v>
+      </c>
+      <c r="D4">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <f>5290/143198</f>
+        <v>3.6941856729842598E-2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="O4"/>
+      <c r="P4"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/cement/cement_var.xlsx
+++ b/data/cement/cement_var.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13965" yWindow="465" windowWidth="22125" windowHeight="17535" tabRatio="598"/>
+    <workbookView xWindow="13965" yWindow="465" windowWidth="22125" windowHeight="17535" tabRatio="598" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Meal" sheetId="25" r:id="rId1"/>
@@ -63,6 +63,30 @@
           </rPr>
           <t xml:space="preserve">
 (CO2/t clinker * CaCO3/CO2) / (t meal/t clinker) </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Samantha Eleanor Tanzer - TBM:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+included in kiln system</t>
         </r>
       </text>
     </comment>
@@ -206,7 +230,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="70">
   <si>
     <t>meta-notes</t>
   </si>
@@ -398,6 +422,24 @@
   </si>
   <si>
     <t>kg meal/kg clinker</t>
+  </si>
+  <si>
+    <t>Shackel2018-0B</t>
+  </si>
+  <si>
+    <t>Shackel2018-HB</t>
+  </si>
+  <si>
+    <t>wood chips</t>
+  </si>
+  <si>
+    <t>Sand</t>
+  </si>
+  <si>
+    <t>Iron Ore</t>
+  </si>
+  <si>
+    <t>Bauxite</t>
   </si>
 </sst>
 </file>
@@ -956,15 +998,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>27</v>
       </c>
@@ -977,11 +1019,20 @@
       <c r="D1" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>25</v>
       </c>
@@ -994,19 +1045,25 @@
       <c r="D2" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="21" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -1017,12 +1074,12 @@
         <f>1-B4</f>
         <v>0.22999999999999998</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="29"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="29"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>58</v>
       </c>
@@ -1037,7 +1094,59 @@
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="E5">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="F6">
+        <v>2.3199999999999998E-2</v>
+      </c>
+      <c r="G6">
+        <v>3.3099999999999997E-2</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="F7">
+        <v>2.3199999999999998E-2</v>
+      </c>
+      <c r="G7">
+        <v>3.3099999999999997E-2</v>
+      </c>
+      <c r="H7">
         <v>0</v>
       </c>
     </row>
@@ -1049,10 +1158,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U4"/>
+  <dimension ref="A1:U6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1204,6 +1313,51 @@
       <c r="J4">
         <f>97*Ref!B18</f>
         <v>0.34920000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5">
+        <v>1.53</v>
+      </c>
+      <c r="C5">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <f>72*Ref!$B$18</f>
+        <v>0.25919999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6">
+        <v>1.53</v>
+      </c>
+      <c r="C6">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>66</v>
+      </c>
+      <c r="J6">
+        <f>72*Ref!$B$18</f>
+        <v>0.25919999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/data/cement/cement_var.xlsx
+++ b/data/cement/cement_var.xlsx
@@ -230,7 +230,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="70">
   <si>
     <t>meta-notes</t>
   </si>
@@ -415,24 +415,12 @@
     <t>kg blast furnace slag/kg cement</t>
   </si>
   <si>
-    <t>GJ/kg clinker out</t>
-  </si>
-  <si>
     <t>meal2clinker</t>
   </si>
   <si>
     <t>kg meal/kg clinker</t>
   </si>
   <si>
-    <t>Shackel2018-0B</t>
-  </si>
-  <si>
-    <t>Shackel2018-HB</t>
-  </si>
-  <si>
-    <t>wood chips</t>
-  </si>
-  <si>
     <t>Sand</t>
   </si>
   <si>
@@ -440,6 +428,18 @@
   </si>
   <si>
     <t>Bauxite</t>
+  </si>
+  <si>
+    <t>dry wood chips (EU no swiss)</t>
+  </si>
+  <si>
+    <t>GJ/t clinker out</t>
+  </si>
+  <si>
+    <t>Schakel2018-0B</t>
+  </si>
+  <si>
+    <t>Schakel2018-HB</t>
   </si>
 </sst>
 </file>
@@ -676,7 +676,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -716,6 +716,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1005,6 +1006,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
@@ -1020,13 +1024,13 @@
         <v>57</v>
       </c>
       <c r="E1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H1" s="21" t="s">
         <v>1</v>
@@ -1100,7 +1104,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B6">
         <v>0.77400000000000002</v>
@@ -1126,7 +1130,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B7">
         <v>0.77400000000000002</v>
@@ -1161,12 +1165,12 @@
   <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
@@ -1180,7 +1184,7 @@
         <v>27</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C1" s="26" t="s">
         <v>37</v>
@@ -1219,7 +1223,7 @@
         <v>25</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C2" s="25" t="s">
         <v>40</v>
@@ -1229,10 +1233,10 @@
       </c>
       <c r="E2" s="25"/>
       <c r="F2" s="36" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="J2" s="36" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="K2" s="23"/>
       <c r="L2" s="21"/>
@@ -1317,7 +1321,7 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B5">
         <v>1.53</v>
@@ -1328,11 +1332,20 @@
       <c r="D5">
         <v>0</v>
       </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>3.7</v>
+      </c>
       <c r="G5" t="s">
         <v>52</v>
       </c>
       <c r="H5">
         <v>0</v>
+      </c>
+      <c r="I5" s="37" t="s">
+        <v>66</v>
       </c>
       <c r="J5">
         <f>72*Ref!$B$18</f>
@@ -1341,7 +1354,7 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B6">
         <v>1.53</v>
@@ -1352,7 +1365,19 @@
       <c r="D6">
         <v>0</v>
       </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>3.7</v>
+      </c>
       <c r="G6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6" s="37" t="s">
         <v>66</v>
       </c>
       <c r="J6">
@@ -1368,13 +1393,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
@@ -1437,6 +1466,40 @@
         <v>1</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
         <v>0</v>
       </c>
     </row>

--- a/data/cement/cement_var.xlsx
+++ b/data/cement/cement_var.xlsx
@@ -1,27 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\BlackBlox\data\cement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/cement/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88BEC2E1-46BB-BE4A-8569-8B6CEE689677}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13965" yWindow="465" windowWidth="22125" windowHeight="17535" tabRatio="598" activeTab="1"/>
+    <workbookView xWindow="6680" yWindow="460" windowWidth="22120" windowHeight="17540" tabRatio="598" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Meal" sheetId="25" r:id="rId1"/>
     <sheet name="Kiln System" sheetId="32" r:id="rId2"/>
     <sheet name="Cooler" sheetId="31" r:id="rId3"/>
     <sheet name="Mixer" sheetId="29" r:id="rId4"/>
-    <sheet name="Ref" sheetId="7" r:id="rId5"/>
-    <sheet name="Preheater" sheetId="30" r:id="rId6"/>
-    <sheet name="Calciner" sheetId="26" r:id="rId7"/>
-    <sheet name="Kiln" sheetId="27" r:id="rId8"/>
+    <sheet name="Cement Use" sheetId="33" r:id="rId5"/>
+    <sheet name="Ref" sheetId="7" r:id="rId6"/>
+    <sheet name="Preheater" sheetId="30" r:id="rId7"/>
+    <sheet name="Calciner" sheetId="26" r:id="rId8"/>
+    <sheet name="Kiln" sheetId="27" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,18 +39,18 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Samantha Eleanor Tanzer - TBM</author>
   </authors>
   <commentList>
-    <comment ref="B5" authorId="0" shapeId="0">
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -57,16 +59,25 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-(CO2/t clinker * CaCO3/CO2) / (t meal/t clinker) </t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">(CO2/t clinker * CaCO3/CO2) / (t meal/t clinker) </t>
         </r>
       </text>
     </comment>
-    <comment ref="H6" authorId="0" shapeId="0">
+    <comment ref="I6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -95,18 +106,18 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Samantha Eleanor Tanzer - TBM</author>
   </authors>
   <commentList>
-    <comment ref="C3" authorId="0" shapeId="0">
+    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -115,22 +126,31 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-(CO2/t clinker * CaCO3/CO2) / (t meal/t clinker) </t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">(CO2/t clinker * CaCO3/CO2) / (t meal/t clinker) </t>
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="0" shapeId="0">
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
@@ -139,12 +159,21 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Mass flow of solid fuel/clinker output * heating value of coal specified in energies paper</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Mass flow of solid fuel/clinker output * heating value of coal specified in energies paper</t>
         </r>
       </text>
     </comment>
@@ -153,12 +182,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="C3" authorId="0" shapeId="0">
+    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -196,12 +225,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Samantha Eleanor Tanzer - TBM</author>
   </authors>
   <commentList>
-    <comment ref="I5" authorId="0" shapeId="0">
+    <comment ref="I5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -230,7 +259,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="71">
   <si>
     <t>meta-notes</t>
   </si>
@@ -440,19 +469,22 @@
   </si>
   <si>
     <t>Schakel2018-HB</t>
+  </si>
+  <si>
+    <t>Unspecified Mineral</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -561,17 +593,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
-      <color indexed="81"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
-      <color indexed="81"/>
+      <color rgb="FF000000"/>
       <name val="Tahoma"/>
-      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -720,8 +765,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 3" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -998,19 +1043,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
         <v>27</v>
       </c>
@@ -1032,11 +1078,14 @@
       <c r="G1" t="s">
         <v>65</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
         <v>25</v>
       </c>
@@ -1052,11 +1101,12 @@
       <c r="E2" s="18"/>
       <c r="F2" s="18"/>
       <c r="G2" s="18"/>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="18"/>
+      <c r="I2" s="21" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
         <v>0</v>
       </c>
@@ -1066,8 +1116,9 @@
       <c r="E3" s="18"/>
       <c r="F3" s="18"/>
       <c r="G3" s="18"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H3" s="18"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -1079,11 +1130,15 @@
         <v>0.22999999999999998</v>
       </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4" s="29"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <f>1-SUM(B4:G4)</f>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="29"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>58</v>
       </c>
@@ -1099,10 +1154,14 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <f>1-SUM(B5:G5)</f>
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>68</v>
       </c>
@@ -1125,10 +1184,14 @@
         <v>3.3099999999999997E-2</v>
       </c>
       <c r="H6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <f>1-SUM(B6:G6)</f>
+        <v>3.4699999999999953E-2</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>69</v>
       </c>
@@ -1151,6 +1214,10 @@
         <v>3.3099999999999997E-2</v>
       </c>
       <c r="H7">
+        <f>1-SUM(B7:G7)</f>
+        <v>3.4699999999999953E-2</v>
+      </c>
+      <c r="I7">
         <v>0</v>
       </c>
     </row>
@@ -1161,25 +1228,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:T6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
         <v>27</v>
       </c>
@@ -1190,35 +1257,32 @@
         <v>37</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="E1" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="F1" s="28" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
       <c r="H1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" t="s">
         <v>1</v>
       </c>
+      <c r="J1" s="23"/>
       <c r="K1" s="23"/>
       <c r="L1" s="23"/>
       <c r="M1" s="23"/>
       <c r="N1" s="23"/>
       <c r="O1" s="23"/>
       <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
         <v>25</v>
       </c>
@@ -1228,29 +1292,26 @@
       <c r="C2" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="36" t="s">
+      <c r="D2" s="25"/>
+      <c r="E2" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="J2" s="36" t="s">
+      <c r="I2" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="K2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="21"/>
       <c r="L2" s="21"/>
       <c r="M2" s="21"/>
       <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
+      <c r="O2" s="23"/>
       <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
+      <c r="Q2" s="21"/>
       <c r="R2" s="21"/>
       <c r="S2" s="21"/>
       <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -1262,29 +1323,26 @@
         <v>0.62948564593301437</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
         <v>3.3</v>
       </c>
-      <c r="G3" t="s">
+      <c r="F3" t="s">
         <v>52</v>
       </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
         <v>53</v>
       </c>
-      <c r="J3">
+      <c r="I3">
         <f>100*Ref!B18</f>
         <v>0.36</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -1296,30 +1354,27 @@
         <v>0.77</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
         <f>(8640+5290)/120646*27.15</f>
         <v>3.1347868972033885</v>
       </c>
-      <c r="G4" t="s">
+      <c r="F4" t="s">
         <v>52</v>
       </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
         <v>53</v>
       </c>
-      <c r="J4">
+      <c r="I4">
         <f>97*Ref!B18</f>
         <v>0.34920000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>68</v>
       </c>
@@ -1330,29 +1385,26 @@
         <v>0.77400000000000002</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
         <v>3.7</v>
       </c>
-      <c r="G5" t="s">
+      <c r="F5" t="s">
         <v>52</v>
       </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="37" t="s">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="J5">
+      <c r="I5">
         <f>72*Ref!$B$18</f>
         <v>0.25919999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>69</v>
       </c>
@@ -1363,24 +1415,21 @@
         <v>0.77400000000000002</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
+        <v>3.7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6">
         <v>1</v>
       </c>
-      <c r="F6">
-        <v>3.7</v>
-      </c>
-      <c r="G6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6" s="37" t="s">
+      <c r="H6" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="J6">
+      <c r="I6">
         <f>72*Ref!$B$18</f>
         <v>0.25919999999999999</v>
       </c>
@@ -1392,20 +1441,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.5" customWidth="1"/>
+    <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
         <v>27</v>
       </c>
@@ -1422,7 +1471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
         <v>25</v>
       </c>
@@ -1430,12 +1479,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -1452,7 +1501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>58</v>
       </c>
@@ -1469,7 +1518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>68</v>
       </c>
@@ -1486,7 +1535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>69</v>
       </c>
@@ -1509,16 +1558,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
         <v>27</v>
       </c>
@@ -1538,7 +1587,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
         <v>25</v>
       </c>
@@ -1555,12 +1604,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -1577,7 +1626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>58</v>
       </c>
@@ -1603,33 +1652,47 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D858396-432B-814F-8FAD-7B9CEE6CFA13}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="5" t="s">
         <v>8</v>
@@ -1638,7 +1701,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>10</v>
       </c>
@@ -1650,7 +1713,7 @@
         <v>5.3537967341839917E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
@@ -1662,7 +1725,7 @@
         <v>7.1573391630231102E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>12</v>
       </c>
@@ -1674,7 +1737,7 @@
         <v>1.2496698492013921E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>13</v>
       </c>
@@ -1686,7 +1749,7 @@
         <v>1.963482644775587E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>14</v>
       </c>
@@ -1698,7 +1761,7 @@
         <v>8.9938431337556905E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>15</v>
       </c>
@@ -1710,7 +1773,7 @@
         <v>8.0375122691175155E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>16</v>
       </c>
@@ -1723,7 +1786,7 @@
         <v>4.1190030040748338E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>17</v>
       </c>
@@ -1735,7 +1798,7 @@
         <v>1.2498170786115822E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>18</v>
       </c>
@@ -1747,24 +1810,24 @@
         <v>1.4276255911483892E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="10"/>
       <c r="B13" s="11"/>
       <c r="C13" s="12"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="17"/>
       <c r="B16" s="14" t="s">
         <v>20</v>
@@ -1772,7 +1835,7 @@
       <c r="C16" s="14"/>
       <c r="H16" s="27"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
         <v>21</v>
       </c>
@@ -1781,7 +1844,7 @@
       </c>
       <c r="C17" s="8"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
         <v>22</v>
       </c>
@@ -1793,7 +1856,7 @@
       <c r="D18" s="20"/>
       <c r="E18" s="27"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="17" t="s">
         <v>23</v>
       </c>
@@ -1803,7 +1866,7 @@
       </c>
       <c r="C19" s="8"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
         <v>24</v>
       </c>
@@ -1813,7 +1876,7 @@
       </c>
       <c r="E20" s="27"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
         <v>26</v>
       </c>
@@ -1822,7 +1885,7 @@
         <v>0.90718581887127947</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H28" t="s">
         <v>29</v>
       </c>
@@ -1833,24 +1896,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="25.140625" customWidth="1"/>
+    <col min="2" max="2" width="25.1640625" customWidth="1"/>
     <col min="3" max="3" width="15" style="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.1640625" style="35" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
         <v>27</v>
       </c>
@@ -1889,7 +1952,7 @@
       </c>
       <c r="M1" s="21"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
         <v>25</v>
       </c>
@@ -1915,7 +1978,7 @@
       <c r="P2" s="21"/>
       <c r="Q2" s="21"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
         <v>0</v>
       </c>
@@ -1925,7 +1988,7 @@
       <c r="E3" s="25"/>
       <c r="F3" s="25"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -1965,7 +2028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>58</v>
       </c>
@@ -1994,21 +2057,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
         <v>27</v>
       </c>
@@ -2050,7 +2113,7 @@
       <c r="Q1" s="21"/>
       <c r="R1" s="21"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
         <v>25</v>
       </c>
@@ -2079,7 +2142,7 @@
       <c r="U2" s="21"/>
       <c r="V2" s="21"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
         <v>0</v>
       </c>
@@ -2088,7 +2151,7 @@
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -2130,21 +2193,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="8" max="8" width="17.42578125" customWidth="1"/>
-    <col min="12" max="18" width="10.85546875" style="1"/>
+    <col min="8" max="8" width="17.5" customWidth="1"/>
+    <col min="12" max="18" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
         <v>27</v>
       </c>
@@ -2186,7 +2249,7 @@
       <c r="Q1" s="23"/>
       <c r="R1" s="23"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
         <v>25</v>
       </c>
@@ -2215,7 +2278,7 @@
       <c r="U2" s="21"/>
       <c r="V2" s="21"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
         <v>0</v>
       </c>
@@ -2224,7 +2287,7 @@
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -2263,7 +2326,7 @@
       <c r="O4"/>
       <c r="P4"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>58</v>
       </c>

--- a/data/cement/cement_var.xlsx
+++ b/data/cement/cement_var.xlsx
@@ -1,29 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/cement/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\BlackBlox\data\cement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88BEC2E1-46BB-BE4A-8569-8B6CEE689677}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6680" yWindow="460" windowWidth="22120" windowHeight="17540" tabRatio="598" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6675" yWindow="465" windowWidth="22125" windowHeight="17535" tabRatio="598" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Meal" sheetId="25" r:id="rId1"/>
     <sheet name="Kiln System" sheetId="32" r:id="rId2"/>
     <sheet name="Cooler" sheetId="31" r:id="rId3"/>
     <sheet name="Mixer" sheetId="29" r:id="rId4"/>
-    <sheet name="Cement Use" sheetId="33" r:id="rId5"/>
-    <sheet name="Ref" sheetId="7" r:id="rId6"/>
-    <sheet name="Preheater" sheetId="30" r:id="rId7"/>
-    <sheet name="Calciner" sheetId="26" r:id="rId8"/>
-    <sheet name="Kiln" sheetId="27" r:id="rId9"/>
+    <sheet name="Ref" sheetId="7" r:id="rId5"/>
+    <sheet name="Preheater" sheetId="30" r:id="rId6"/>
+    <sheet name="Calciner" sheetId="26" r:id="rId7"/>
+    <sheet name="Kiln" sheetId="27" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,12 +37,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Samantha Eleanor Tanzer - TBM</author>
   </authors>
   <commentList>
-    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="B5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -77,7 +75,31 @@
         </r>
       </text>
     </comment>
-    <comment ref="I6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="I6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Samantha Eleanor Tanzer - TBM:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+included in kiln system</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -106,12 +128,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Samantha Eleanor Tanzer - TBM</author>
   </authors>
   <commentList>
-    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="C3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -144,7 +166,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="E4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -182,12 +204,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
+    <comment ref="C3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -225,12 +247,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Samantha Eleanor Tanzer - TBM</author>
   </authors>
   <commentList>
-    <comment ref="I5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
+    <comment ref="I5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -259,7 +281,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="73">
   <si>
     <t>meta-notes</t>
   </si>
@@ -472,12 +494,18 @@
   </si>
   <si>
     <t>Unspecified Mineral</t>
+  </si>
+  <si>
+    <t>CLK-0B</t>
+  </si>
+  <si>
+    <t>CLK-HB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -765,8 +793,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 3" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1043,20 +1071,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.83203125" customWidth="1"/>
+    <col min="8" max="8" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>27</v>
       </c>
@@ -1085,7 +1113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>25</v>
       </c>
@@ -1106,7 +1134,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>0</v>
       </c>
@@ -1118,7 +1146,7 @@
       <c r="G3" s="18"/>
       <c r="H3" s="18"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -1138,7 +1166,7 @@
       </c>
       <c r="J4" s="29"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>58</v>
       </c>
@@ -1161,7 +1189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>68</v>
       </c>
@@ -1191,7 +1219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>69</v>
       </c>
@@ -1218,6 +1246,66 @@
         <v>3.4699999999999953E-2</v>
       </c>
       <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="F8">
+        <v>2.3199999999999998E-2</v>
+      </c>
+      <c r="G8">
+        <v>3.3099999999999997E-2</v>
+      </c>
+      <c r="H8">
+        <f>1-SUM(B8:G8)</f>
+        <v>3.4699999999999953E-2</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="F9">
+        <v>2.3199999999999998E-2</v>
+      </c>
+      <c r="G9">
+        <v>3.3099999999999997E-2</v>
+      </c>
+      <c r="H9">
+        <f>1-SUM(B9:G9)</f>
+        <v>3.4699999999999953E-2</v>
+      </c>
+      <c r="I9">
         <v>0</v>
       </c>
     </row>
@@ -1228,25 +1316,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:T6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>27</v>
       </c>
@@ -1282,7 +1370,7 @@
       <c r="O1" s="23"/>
       <c r="P1" s="23"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>25</v>
       </c>
@@ -1311,7 +1399,7 @@
       <c r="S2" s="21"/>
       <c r="T2" s="21"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -1342,7 +1430,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -1374,7 +1462,7 @@
         <v>0.34920000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>68</v>
       </c>
@@ -1404,7 +1492,7 @@
         <v>0.25919999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>69</v>
       </c>
@@ -1430,6 +1518,66 @@
         <v>66</v>
       </c>
       <c r="I6">
+        <f>72*Ref!$B$18</f>
+        <v>0.25919999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7">
+        <v>1.53</v>
+      </c>
+      <c r="C7">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>3.7</v>
+      </c>
+      <c r="F7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="I7">
+        <f>72*Ref!$B$18</f>
+        <v>0.25919999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8">
+        <v>1.53</v>
+      </c>
+      <c r="C8">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>3.7</v>
+      </c>
+      <c r="F8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="I8">
         <f>72*Ref!$B$18</f>
         <v>0.25919999999999999</v>
       </c>
@@ -1441,20 +1589,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B8" sqref="B8:E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.5" customWidth="1"/>
-    <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>27</v>
       </c>
@@ -1471,7 +1619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>25</v>
       </c>
@@ -1479,12 +1627,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -1501,7 +1649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>58</v>
       </c>
@@ -1518,7 +1666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>68</v>
       </c>
@@ -1535,7 +1683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>69</v>
       </c>
@@ -1549,6 +1697,40 @@
         <v>1</v>
       </c>
       <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
         <v>0</v>
       </c>
     </row>
@@ -1558,16 +1740,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>27</v>
       </c>
@@ -1587,7 +1769,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>25</v>
       </c>
@@ -1604,12 +1786,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -1626,7 +1808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>58</v>
       </c>
@@ -1644,6 +1826,46 @@
       </c>
       <c r="F5">
         <v>0.15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6">
+        <v>0.95</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0.05</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7">
+        <v>0.95</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0.05</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1652,47 +1874,33 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D858396-432B-814F-8FAD-7B9CEE6CFA13}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:H28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="5" t="s">
         <v>8</v>
@@ -1701,7 +1909,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>10</v>
       </c>
@@ -1713,7 +1921,7 @@
         <v>5.3537967341839917E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
@@ -1725,7 +1933,7 @@
         <v>7.1573391630231102E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>12</v>
       </c>
@@ -1737,7 +1945,7 @@
         <v>1.2496698492013921E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>13</v>
       </c>
@@ -1749,7 +1957,7 @@
         <v>1.963482644775587E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>14</v>
       </c>
@@ -1761,7 +1969,7 @@
         <v>8.9938431337556905E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>15</v>
       </c>
@@ -1773,7 +1981,7 @@
         <v>8.0375122691175155E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>16</v>
       </c>
@@ -1786,7 +1994,7 @@
         <v>4.1190030040748338E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>17</v>
       </c>
@@ -1798,7 +2006,7 @@
         <v>1.2498170786115822E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>18</v>
       </c>
@@ -1810,24 +2018,24 @@
         <v>1.4276255911483892E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="11"/>
       <c r="C13" s="12"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
       <c r="B16" s="14" t="s">
         <v>20</v>
@@ -1835,7 +2043,7 @@
       <c r="C16" s="14"/>
       <c r="H16" s="27"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>21</v>
       </c>
@@ -1844,7 +2052,7 @@
       </c>
       <c r="C17" s="8"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>22</v>
       </c>
@@ -1856,7 +2064,7 @@
       <c r="D18" s="20"/>
       <c r="E18" s="27"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
         <v>23</v>
       </c>
@@ -1866,7 +2074,7 @@
       </c>
       <c r="C19" s="8"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
         <v>24</v>
       </c>
@@ -1876,7 +2084,7 @@
       </c>
       <c r="E20" s="27"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
         <v>26</v>
       </c>
@@ -1885,7 +2093,7 @@
         <v>0.90718581887127947</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H28" t="s">
         <v>29</v>
       </c>
@@ -1896,24 +2104,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="25.1640625" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" customWidth="1"/>
     <col min="3" max="3" width="15" style="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.1640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" style="35" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>27</v>
       </c>
@@ -1952,7 +2160,7 @@
       </c>
       <c r="M1" s="21"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>25</v>
       </c>
@@ -1978,7 +2186,7 @@
       <c r="P2" s="21"/>
       <c r="Q2" s="21"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>0</v>
       </c>
@@ -1988,7 +2196,7 @@
       <c r="E3" s="25"/>
       <c r="F3" s="25"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -2028,7 +2236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>58</v>
       </c>
@@ -2057,21 +2265,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>27</v>
       </c>
@@ -2113,7 +2321,7 @@
       <c r="Q1" s="21"/>
       <c r="R1" s="21"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>25</v>
       </c>
@@ -2142,7 +2350,7 @@
       <c r="U2" s="21"/>
       <c r="V2" s="21"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>0</v>
       </c>
@@ -2151,7 +2359,7 @@
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -2193,21 +2401,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="17.5" customWidth="1"/>
-    <col min="12" max="18" width="10.83203125" style="1"/>
+    <col min="8" max="8" width="17.42578125" customWidth="1"/>
+    <col min="12" max="18" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>27</v>
       </c>
@@ -2249,7 +2457,7 @@
       <c r="Q1" s="23"/>
       <c r="R1" s="23"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>25</v>
       </c>
@@ -2278,7 +2486,7 @@
       <c r="U2" s="21"/>
       <c r="V2" s="21"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>0</v>
       </c>
@@ -2287,7 +2495,7 @@
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -2326,7 +2534,7 @@
       <c r="O4"/>
       <c r="P4"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>58</v>
       </c>

--- a/data/cement/cement_var.xlsx
+++ b/data/cement/cement_var.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\BlackBlox\data\cement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/cement/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D1641A-D55F-F249-8A8F-A77A642F7433}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6675" yWindow="465" windowWidth="22125" windowHeight="17535" tabRatio="598" activeTab="4"/>
+    <workbookView xWindow="6680" yWindow="460" windowWidth="22120" windowHeight="17540" tabRatio="598" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Meal" sheetId="25" r:id="rId1"/>
@@ -21,7 +22,7 @@
     <sheet name="Calciner" sheetId="26" r:id="rId7"/>
     <sheet name="Kiln" sheetId="27" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,12 +38,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Samantha Eleanor Tanzer - TBM</author>
   </authors>
   <commentList>
-    <comment ref="B5" authorId="0" shapeId="0">
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -75,7 +76,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I6" authorId="0" shapeId="0">
+    <comment ref="I6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -99,7 +100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I8" authorId="0" shapeId="0">
+    <comment ref="I8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -128,12 +129,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Samantha Eleanor Tanzer - TBM</author>
   </authors>
   <commentList>
-    <comment ref="C3" authorId="0" shapeId="0">
+    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -166,7 +167,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0" shapeId="0">
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -204,12 +205,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="C3" authorId="0" shapeId="0">
+    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -247,12 +248,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Samantha Eleanor Tanzer - TBM</author>
   </authors>
   <commentList>
-    <comment ref="I5" authorId="0" shapeId="0">
+    <comment ref="I5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -505,7 +506,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -793,8 +794,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 3" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1071,20 +1072,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.85546875" customWidth="1"/>
+    <col min="8" max="8" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
         <v>27</v>
       </c>
@@ -1113,7 +1114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
         <v>25</v>
       </c>
@@ -1134,7 +1135,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
         <v>0</v>
       </c>
@@ -1146,7 +1147,7 @@
       <c r="G3" s="18"/>
       <c r="H3" s="18"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -1158,7 +1159,7 @@
         <v>0.22999999999999998</v>
       </c>
       <c r="H4">
-        <f>1-SUM(B4:G4)</f>
+        <f t="shared" ref="H4:H9" si="0">1-SUM(B4:G4)</f>
         <v>0</v>
       </c>
       <c r="I4">
@@ -1166,7 +1167,7 @@
       </c>
       <c r="J4" s="29"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>58</v>
       </c>
@@ -1182,14 +1183,14 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <f>1-SUM(B5:G5)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>68</v>
       </c>
@@ -1212,14 +1213,14 @@
         <v>3.3099999999999997E-2</v>
       </c>
       <c r="H6">
-        <f>1-SUM(B6:G6)</f>
+        <f t="shared" si="0"/>
         <v>3.4699999999999953E-2</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>69</v>
       </c>
@@ -1242,14 +1243,14 @@
         <v>3.3099999999999997E-2</v>
       </c>
       <c r="H7">
-        <f>1-SUM(B7:G7)</f>
+        <f t="shared" si="0"/>
         <v>3.4699999999999953E-2</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
         <v>71</v>
       </c>
@@ -1272,14 +1273,14 @@
         <v>3.3099999999999997E-2</v>
       </c>
       <c r="H8">
-        <f>1-SUM(B8:G8)</f>
+        <f t="shared" si="0"/>
         <v>3.4699999999999953E-2</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="s">
         <v>72</v>
       </c>
@@ -1302,7 +1303,7 @@
         <v>3.3099999999999997E-2</v>
       </c>
       <c r="H9">
-        <f>1-SUM(B9:G9)</f>
+        <f t="shared" si="0"/>
         <v>3.4699999999999953E-2</v>
       </c>
       <c r="I9">
@@ -1316,25 +1317,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A7" sqref="A7:A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
         <v>27</v>
       </c>
@@ -1370,7 +1371,7 @@
       <c r="O1" s="23"/>
       <c r="P1" s="23"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
         <v>25</v>
       </c>
@@ -1399,7 +1400,7 @@
       <c r="S2" s="21"/>
       <c r="T2" s="21"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -1430,7 +1431,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -1462,7 +1463,7 @@
         <v>0.34920000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>68</v>
       </c>
@@ -1492,7 +1493,7 @@
         <v>0.25919999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>69</v>
       </c>
@@ -1522,7 +1523,7 @@
         <v>0.25919999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="21" t="s">
         <v>71</v>
       </c>
@@ -1552,7 +1553,7 @@
         <v>0.25919999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
         <v>72</v>
       </c>
@@ -1589,20 +1590,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
         <v>27</v>
       </c>
@@ -1619,7 +1620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
         <v>25</v>
       </c>
@@ -1627,12 +1628,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -1649,7 +1650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>58</v>
       </c>
@@ -1666,7 +1667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>68</v>
       </c>
@@ -1683,7 +1684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>69</v>
       </c>
@@ -1700,7 +1701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
         <v>71</v>
       </c>
@@ -1717,7 +1718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="s">
         <v>72</v>
       </c>
@@ -1740,16 +1741,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="A6" sqref="A6:A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
         <v>27</v>
       </c>
@@ -1769,7 +1770,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
         <v>25</v>
       </c>
@@ -1786,12 +1787,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -1808,7 +1809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>58</v>
       </c>
@@ -1828,7 +1829,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>71</v>
       </c>
@@ -1848,7 +1849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="21" t="s">
         <v>72</v>
       </c>
@@ -1874,33 +1875,33 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="5" t="s">
         <v>8</v>
@@ -1909,7 +1910,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>10</v>
       </c>
@@ -1921,7 +1922,7 @@
         <v>5.3537967341839917E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
@@ -1933,7 +1934,7 @@
         <v>7.1573391630231102E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>12</v>
       </c>
@@ -1945,7 +1946,7 @@
         <v>1.2496698492013921E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>13</v>
       </c>
@@ -1957,7 +1958,7 @@
         <v>1.963482644775587E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>14</v>
       </c>
@@ -1969,7 +1970,7 @@
         <v>8.9938431337556905E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>15</v>
       </c>
@@ -1981,7 +1982,7 @@
         <v>8.0375122691175155E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>16</v>
       </c>
@@ -1994,7 +1995,7 @@
         <v>4.1190030040748338E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>17</v>
       </c>
@@ -2006,7 +2007,7 @@
         <v>1.2498170786115822E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>18</v>
       </c>
@@ -2018,24 +2019,24 @@
         <v>1.4276255911483892E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="10"/>
       <c r="B13" s="11"/>
       <c r="C13" s="12"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="17"/>
       <c r="B16" s="14" t="s">
         <v>20</v>
@@ -2043,7 +2044,7 @@
       <c r="C16" s="14"/>
       <c r="H16" s="27"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
         <v>21</v>
       </c>
@@ -2052,7 +2053,7 @@
       </c>
       <c r="C17" s="8"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
         <v>22</v>
       </c>
@@ -2064,7 +2065,7 @@
       <c r="D18" s="20"/>
       <c r="E18" s="27"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="17" t="s">
         <v>23</v>
       </c>
@@ -2074,7 +2075,7 @@
       </c>
       <c r="C19" s="8"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
         <v>24</v>
       </c>
@@ -2084,7 +2085,7 @@
       </c>
       <c r="E20" s="27"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
         <v>26</v>
       </c>
@@ -2093,7 +2094,7 @@
         <v>0.90718581887127947</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H28" t="s">
         <v>29</v>
       </c>
@@ -2105,23 +2106,23 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="25.140625" customWidth="1"/>
+    <col min="2" max="2" width="25.1640625" customWidth="1"/>
     <col min="3" max="3" width="15" style="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.1640625" style="35" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
         <v>27</v>
       </c>
@@ -2160,7 +2161,7 @@
       </c>
       <c r="M1" s="21"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
         <v>25</v>
       </c>
@@ -2186,7 +2187,7 @@
       <c r="P2" s="21"/>
       <c r="Q2" s="21"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
         <v>0</v>
       </c>
@@ -2196,7 +2197,7 @@
       <c r="E3" s="25"/>
       <c r="F3" s="25"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -2236,7 +2237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>58</v>
       </c>
@@ -2266,20 +2267,20 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
         <v>27</v>
       </c>
@@ -2321,7 +2322,7 @@
       <c r="Q1" s="21"/>
       <c r="R1" s="21"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
         <v>25</v>
       </c>
@@ -2350,7 +2351,7 @@
       <c r="U2" s="21"/>
       <c r="V2" s="21"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
         <v>0</v>
       </c>
@@ -2359,7 +2360,7 @@
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -2402,20 +2403,20 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="8" max="8" width="17.42578125" customWidth="1"/>
-    <col min="12" max="18" width="10.85546875" style="1"/>
+    <col min="8" max="8" width="17.5" customWidth="1"/>
+    <col min="12" max="18" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
         <v>27</v>
       </c>
@@ -2457,7 +2458,7 @@
       <c r="Q1" s="23"/>
       <c r="R1" s="23"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
         <v>25</v>
       </c>
@@ -2486,7 +2487,7 @@
       <c r="U2" s="21"/>
       <c r="V2" s="21"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
         <v>0</v>
       </c>
@@ -2495,7 +2496,7 @@
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -2534,7 +2535,7 @@
       <c r="O4"/>
       <c r="P4"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>58</v>
       </c>

--- a/data/cement/cement_var.xlsx
+++ b/data/cement/cement_var.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/cement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D1641A-D55F-F249-8A8F-A77A642F7433}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8179EC0A-5AB9-7B44-BAD1-388E308881C2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6680" yWindow="460" windowWidth="22120" windowHeight="17540" tabRatio="598" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1360" yWindow="460" windowWidth="22120" windowHeight="17540" tabRatio="598" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Meal" sheetId="25" r:id="rId1"/>
@@ -82,21 +82,30 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Samantha Eleanor Tanzer - TBM:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-included in kiln system</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>included in kiln system</t>
         </r>
       </text>
     </comment>
@@ -108,7 +117,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Samantha Eleanor Tanzer - TBM:</t>
         </r>
@@ -117,7 +126,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 included in kiln system</t>
@@ -175,7 +184,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Samantha Eleanor Tanzer - TBM:</t>
         </r>
@@ -184,7 +193,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -194,7 +203,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Mass flow of solid fuel/clinker output * heating value of coal specified in energies paper</t>
         </r>
@@ -261,7 +270,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Samantha Eleanor Tanzer - TBM:</t>
         </r>
@@ -270,7 +279,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Based on 6% moisture of the meal</t>
@@ -513,7 +522,7 @@
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -605,14 +614,14 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -633,19 +642,6 @@
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1076,7 +1072,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1277,7 +1273,7 @@
         <v>3.4699999999999953E-2</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -1321,7 +1317,7 @@
   <dimension ref="A1:T8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:A8"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1593,7 +1589,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -1744,8 +1740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A7"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1837,7 +1833,8 @@
         <v>0.95</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <f>70*Ref!B$18</f>
+        <v>0.252</v>
       </c>
       <c r="D6">
         <v>0.05</v>
@@ -1857,7 +1854,8 @@
         <v>0.95</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <f>70*Ref!B$18</f>
+        <v>0.252</v>
       </c>
       <c r="D7">
         <v>0.05</v>
@@ -2406,8 +2404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:V5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView zoomScale="178" zoomScaleNormal="178" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
